--- a/Bosa_Diario.xlsx
+++ b/Bosa_Diario.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>77.739</v>
+        <v>77.95999999999999</v>
       </c>
       <c r="C2">
         <v>0.007</v>
@@ -407,7 +407,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>75.747</v>
+        <v>76.19</v>
       </c>
       <c r="C3">
         <v>0.007</v>
@@ -418,7 +418,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>73.755</v>
+        <v>74.419</v>
       </c>
       <c r="C4">
         <v>0.007</v>
@@ -429,7 +429,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>71.764</v>
+        <v>72.649</v>
       </c>
       <c r="C5">
         <v>0.007</v>
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>69.77200000000001</v>
+        <v>70.879</v>
       </c>
       <c r="C6">
-        <v>0.013</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,7 +451,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>67.78100000000001</v>
+        <v>69.10899999999999</v>
       </c>
       <c r="C7">
         <v>0.02</v>
@@ -462,7 +462,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>65.789</v>
+        <v>67.33799999999999</v>
       </c>
       <c r="C8">
         <v>0.02</v>
@@ -473,7 +473,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>63.798</v>
+        <v>65.568</v>
       </c>
       <c r="C9">
         <v>0.02</v>
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>61.806</v>
+        <v>63.798</v>
       </c>
       <c r="C10">
-        <v>0.052</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>59.815</v>
+        <v>62.028</v>
       </c>
       <c r="C11">
-        <v>0.059</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>57.823</v>
+        <v>60.258</v>
       </c>
       <c r="C12">
-        <v>0.07199999999999999</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,7 +517,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>55.832</v>
+        <v>58.487</v>
       </c>
       <c r="C13">
         <v>0.07199999999999999</v>
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>53.84</v>
+        <v>56.717</v>
       </c>
       <c r="C14">
-        <v>0.078</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>51.849</v>
+        <v>54.947</v>
       </c>
       <c r="C15">
-        <v>0.092</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>49.857</v>
+        <v>53.177</v>
       </c>
       <c r="C16">
-        <v>0.098</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>47.866</v>
+        <v>51.406</v>
       </c>
       <c r="C17">
-        <v>0.111</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>45.874</v>
+        <v>49.636</v>
       </c>
       <c r="C18">
-        <v>0.137</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>43.883</v>
+        <v>47.866</v>
       </c>
       <c r="C19">
-        <v>0.196</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>41.891</v>
+        <v>46.096</v>
       </c>
       <c r="C20">
-        <v>0.229</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>39.9</v>
+        <v>44.326</v>
       </c>
       <c r="C21">
-        <v>0.275</v>
+        <v>0.177</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.908</v>
+        <v>42.555</v>
       </c>
       <c r="C22">
-        <v>0.314</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.917</v>
+        <v>40.785</v>
       </c>
       <c r="C23">
-        <v>0.366</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.925</v>
+        <v>39.015</v>
       </c>
       <c r="C24">
-        <v>0.451</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.934</v>
+        <v>37.245</v>
       </c>
       <c r="C25">
-        <v>0.556</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>29.942</v>
+        <v>35.474</v>
       </c>
       <c r="C26">
-        <v>0.621</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>27.951</v>
+        <v>33.704</v>
       </c>
       <c r="C27">
-        <v>0.857</v>
+        <v>0.451</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>25.959</v>
+        <v>31.934</v>
       </c>
       <c r="C28">
-        <v>1.164</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>23.968</v>
+        <v>30.164</v>
       </c>
       <c r="C29">
-        <v>1.465</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>21.976</v>
+        <v>28.394</v>
       </c>
       <c r="C30">
-        <v>1.877</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>19.985</v>
+        <v>26.623</v>
       </c>
       <c r="C31">
-        <v>2.669</v>
+        <v>1.079</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>17.993</v>
+        <v>24.853</v>
       </c>
       <c r="C32">
-        <v>3.597</v>
+        <v>1.334</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>16.002</v>
+        <v>23.083</v>
       </c>
       <c r="C33">
-        <v>5.174</v>
+        <v>1.629</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>14.01</v>
+        <v>21.313</v>
       </c>
       <c r="C34">
-        <v>7.666</v>
+        <v>2.041</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>12.019</v>
+        <v>19.542</v>
       </c>
       <c r="C35">
-        <v>10.962</v>
+        <v>2.819</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>10.027</v>
+        <v>17.772</v>
       </c>
       <c r="C36">
-        <v>14.893</v>
+        <v>3.689</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>8.036</v>
+        <v>16.002</v>
       </c>
       <c r="C37">
-        <v>20.793</v>
+        <v>5.174</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6.044</v>
+        <v>14.232</v>
       </c>
       <c r="C38">
-        <v>30.1</v>
+        <v>7.312</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4.053</v>
+        <v>12.462</v>
       </c>
       <c r="C39">
-        <v>52.521</v>
+        <v>10.151</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,10 +814,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2.061</v>
+        <v>10.691</v>
       </c>
       <c r="C40">
-        <v>85.68899999999999</v>
+        <v>13.611</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -825,10 +825,65 @@
         <v>39</v>
       </c>
       <c r="B41">
+        <v>8.920999999999999</v>
+      </c>
+      <c r="C41">
+        <v>17.261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>7.151</v>
+      </c>
+      <c r="C42">
+        <v>24.083</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>5.381</v>
+      </c>
+      <c r="C43">
+        <v>35.084</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>3.61</v>
+      </c>
+      <c r="C44">
+        <v>61.469</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1.84</v>
+      </c>
+      <c r="C45">
+        <v>87.14100000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
         <v>0.07000000000000001</v>
       </c>
-      <c r="C41">
-        <v>100</v>
+      <c r="C46">
+        <v>99.98699999999999</v>
       </c>
     </row>
   </sheetData>
